--- a/output/piastow/2024/sheets/year_2024.xlsx
+++ b/output/piastow/2024/sheets/year_2024.xlsx
@@ -481,55 +481,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>52.06451612903226</v>
+        <v>52.13755572412793</v>
       </c>
       <c r="C2" t="n">
-        <v>45.03225806451612</v>
+        <v>45.71082837930153</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>53.30000000000001</v>
+        <v>53.38938138325508</v>
       </c>
       <c r="C3" t="n">
-        <v>46.18620689655174</v>
+        <v>47.07007406018991</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>53.69677419354839</v>
+        <v>53.71873379059227</v>
       </c>
       <c r="C4" t="n">
-        <v>47.0516129032258</v>
+        <v>47.36834562463068</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>53.83000000000001</v>
+        <v>53.86340380617773</v>
       </c>
       <c r="C5" t="n">
-        <v>45.26000000000001</v>
+        <v>47.00224738942345</v>
       </c>
     </row>
   </sheetData>
